--- a/data/trans_camb/POLIPATOLOGIA-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,51</t>
+          <t>-1,48; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,8</t>
+          <t>-0,78; 3,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,04</t>
+          <t>3,5; 14,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,82</t>
+          <t>-1,6; 5,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,17</t>
+          <t>-1,88; 5,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 19,23</t>
+          <t>5,48; 18,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,33</t>
+          <t>-0,73; 3,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,79</t>
+          <t>-0,51; 3,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,76</t>
+          <t>6,3; 15,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 168,4</t>
+          <t>-48,73; 165,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 234,11</t>
+          <t>-31,71; 228,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>116,1; 976,16</t>
+          <t>103,33; 953,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 94,26</t>
+          <t>-17,47; 90,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 85,22</t>
+          <t>-20,89; 85,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,35; 302,54</t>
+          <t>51,87; 293,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 83,88</t>
+          <t>-13,26; 84,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 90,56</t>
+          <t>-8,97; 92,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>111,91; 344,69</t>
+          <t>108,8; 338,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,91</t>
+          <t>0,28; 5,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,29</t>
+          <t>-0,8; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,79</t>
+          <t>3,72; 11,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,72</t>
+          <t>-7,44; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,57</t>
+          <t>-6,82; 1,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 19,24</t>
+          <t>4,81; 17,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,1</t>
+          <t>-2,46; 2,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,04</t>
+          <t>-2,6; 2,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 14,89</t>
+          <t>6,09; 14,84</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 141,13</t>
+          <t>4,07; 143,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 127,53</t>
+          <t>-17,3; 120,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,76; 327,83</t>
+          <t>65,9; 327,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 4,8</t>
+          <t>-43,2; 3,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 13,06</t>
+          <t>-40,85; 8,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,83; 148,7</t>
+          <t>27,35; 131,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 26,68</t>
+          <t>-24,45; 25,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 25,41</t>
+          <t>-25,5; 26,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,49; 172,37</t>
+          <t>59,17; 175,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,95</t>
+          <t>-3,17; 3,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,06</t>
+          <t>-3,5; 2,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,4</t>
+          <t>1,45; 9,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 9,12</t>
+          <t>0,27; 9,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,86</t>
+          <t>-5,88; 2,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,24</t>
+          <t>2,64; 12,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,52</t>
+          <t>-0,17; 5,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,22</t>
+          <t>-3,93; 1,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,34</t>
+          <t>3,63; 9,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 48,02</t>
+          <t>-28,57; 47,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 37,38</t>
+          <t>-31,5; 39,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 118,39</t>
+          <t>11,62; 112,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 54,71</t>
+          <t>1,12; 56,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 11,4</t>
+          <t>-27,64; 12,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 73,25</t>
+          <t>13,59; 73,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 43,05</t>
+          <t>-1,47; 43,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 9,61</t>
+          <t>-25,6; 9,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 72,19</t>
+          <t>23,29; 74,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,49</t>
+          <t>-3,63; 5,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,88</t>
+          <t>1,13; 10,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 17,87</t>
+          <t>5,64; 17,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,49</t>
+          <t>-2,06; 9,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 7,79</t>
+          <t>-2,67; 8,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,44; 18,91</t>
+          <t>8,39; 18,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,05</t>
+          <t>-1,17; 5,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,23</t>
+          <t>0,61; 8,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 17,14</t>
+          <t>8,61; 17,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 42,38</t>
+          <t>-20,6; 37,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 83,45</t>
+          <t>5,71; 79,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,3; 134,1</t>
+          <t>31,77; 133,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 36,41</t>
+          <t>-6,46; 35,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 29,14</t>
+          <t>-8,46; 31,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,95; 74,06</t>
+          <t>25,44; 73,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 29,33</t>
+          <t>-4,97; 29,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 40,19</t>
+          <t>2,63; 39,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35,44; 83,74</t>
+          <t>37,22; 88,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,67</t>
+          <t>-8,2; 5,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 1,39</t>
+          <t>-11,59; 2,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 11,09</t>
+          <t>-2,04; 11,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 16,34</t>
+          <t>2,46; 16,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 9,47</t>
+          <t>-3,75; 9,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,19</t>
+          <t>-1,35; 9,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,95</t>
+          <t>-0,94; 9,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,65</t>
+          <t>-6,16; 4,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,41</t>
+          <t>0,1; 8,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 14,79</t>
+          <t>-18,22; 14,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 3,79</t>
+          <t>-26,14; 4,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 28,87</t>
+          <t>-4,39; 29,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,63; 34,43</t>
+          <t>4,64; 35,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 20,24</t>
+          <t>-6,9; 20,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 21,53</t>
+          <t>-2,44; 20,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 20,28</t>
+          <t>-2,16; 21,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 8,12</t>
+          <t>-12,19; 9,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 19,17</t>
+          <t>0,26; 20,45</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,18; 22,33</t>
+          <t>10,98; 23,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 10,45</t>
+          <t>-0,64; 11,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,2; 10,35</t>
+          <t>-0,08; 10,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,05</t>
+          <t>2,86; 11,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,74</t>
+          <t>-5,18; 4,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 10,67</t>
+          <t>-0,93; 10,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,89</t>
+          <t>7,74; 14,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,3</t>
+          <t>-1,95; 5,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,28</t>
+          <t>0,95; 10,63</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,51; 39,57</t>
+          <t>17,37; 40,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 18,82</t>
+          <t>-1,05; 19,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,29; 18,87</t>
+          <t>-0,14; 19,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,76; 16,3</t>
+          <t>3,59; 15,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,99</t>
+          <t>-6,52; 5,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 14,17</t>
+          <t>-1,27; 13,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,96; 22,1</t>
+          <t>10,89; 22,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,82</t>
+          <t>-2,73; 7,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,79; 15,36</t>
+          <t>1,28; 15,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>2,6; 6,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,13</t>
+          <t>2,09; 6,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,43</t>
+          <t>10,57; 15,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,43</t>
+          <t>3,03; 7,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,94</t>
+          <t>0,37; 5,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,69</t>
+          <t>11,63; 19,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,49</t>
+          <t>3,28; 6,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,76; 4,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,81</t>
+          <t>12,11; 17,36</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,53</t>
+          <t>12,22; 34,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>9,23; 32,23</t>
+          <t>10,12; 32,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>51,22; 82,18</t>
+          <t>50,25; 81,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,34; 23,05</t>
+          <t>8,71; 23,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,09</t>
+          <t>0,97; 15,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>33,23; 58,64</t>
+          <t>33,34; 58,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,78; 24,8</t>
+          <t>11,9; 25,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,13</t>
+          <t>6,23; 18,97</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>43,75; 63,74</t>
+          <t>44,16; 66,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,62</t>
+          <t>-1,42; 2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,66</t>
+          <t>-0,84; 3,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 14,96</t>
+          <t>3,89; 15,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,54</t>
+          <t>-1,64; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 5,52</t>
+          <t>-2,08; 5,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 18,64</t>
+          <t>5,25; 19,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,41</t>
+          <t>-0,9; 3,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,82</t>
+          <t>-0,44; 3,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 15,17</t>
+          <t>6,12; 15,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 165,31</t>
+          <t>-47,08; 179,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 228,09</t>
+          <t>-31,13; 264,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>103,33; 953,97</t>
+          <t>121,19; 1064,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 90,17</t>
+          <t>-17,63; 88,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 85,96</t>
+          <t>-23,59; 94,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 293,82</t>
+          <t>55,92; 295,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 84,57</t>
+          <t>-17,39; 78,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 92,54</t>
+          <t>-10,71; 91,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>108,8; 338,2</t>
+          <t>98,62; 338,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,09</t>
+          <t>0,35; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,29</t>
+          <t>-0,64; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,76</t>
+          <t>3,92; 11,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 0,29</t>
+          <t>-7,47; 0,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1,08</t>
+          <t>-6,67; 1,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 17,92</t>
+          <t>5,04; 18,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,08</t>
+          <t>-2,44; 2,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,03</t>
+          <t>-2,45; 2,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,84</t>
+          <t>6,13; 15,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 143,75</t>
+          <t>3,03; 145,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 120,07</t>
+          <t>-12,91; 136,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,9; 327,18</t>
+          <t>72,93; 338,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 3,06</t>
+          <t>-43,98; 5,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,85; 8,76</t>
+          <t>-39,32; 12,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 131,21</t>
+          <t>27,68; 131,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 25,73</t>
+          <t>-23,19; 27,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 26,19</t>
+          <t>-24,18; 29,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,17; 175,34</t>
+          <t>58,8; 171,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,64</t>
+          <t>-2,37; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,98</t>
+          <t>-3,54; 3,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 9,23</t>
+          <t>1,49; 9,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 9,26</t>
+          <t>0,36; 9,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,04</t>
+          <t>-6,15; 2,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 12,26</t>
+          <t>2,45; 12,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,52</t>
+          <t>-0,19; 5,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,29</t>
+          <t>-4,09; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,46</t>
+          <t>3,56; 9,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 47,53</t>
+          <t>-22,12; 50,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 39,69</t>
+          <t>-32,19; 39,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,62; 112,72</t>
+          <t>13,15; 111,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 56,6</t>
+          <t>1,77; 55,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 12,85</t>
+          <t>-30,4; 13,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,59; 73,23</t>
+          <t>12,5; 76,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 43,21</t>
+          <t>-2,36; 42,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 9,96</t>
+          <t>-25,92; 8,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,29; 74,71</t>
+          <t>22,52; 71,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,06</t>
+          <t>-3,91; 4,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,96</t>
+          <t>1,47; 11,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,9</t>
+          <t>4,93; 17,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 9,45</t>
+          <t>-1,77; 9,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 8,2</t>
+          <t>-2,69; 7,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 18,99</t>
+          <t>8,67; 18,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,97</t>
+          <t>-1,29; 6,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,03</t>
+          <t>0,72; 8,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,61; 17,57</t>
+          <t>8,78; 17,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 37,88</t>
+          <t>-21,27; 37,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,71; 79,5</t>
+          <t>6,78; 83,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,77; 133,68</t>
+          <t>29,8; 126,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 35,51</t>
+          <t>-5,86; 36,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 31,53</t>
+          <t>-8,84; 30,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,44; 73,59</t>
+          <t>25,76; 71,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 29,29</t>
+          <t>-5,36; 31,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,63; 39,36</t>
+          <t>2,99; 39,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,22; 88,56</t>
+          <t>37,77; 84,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 5,38</t>
+          <t>-8,58; 5,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 2,08</t>
+          <t>-11,45; 1,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 11,18</t>
+          <t>-1,93; 10,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 16,62</t>
+          <t>2,25; 16,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,68</t>
+          <t>-3,97; 9,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 9,77</t>
+          <t>-2,27; 9,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 9,44</t>
+          <t>-0,84; 9,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,02</t>
+          <t>-5,84; 3,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 8,91</t>
+          <t>-0,36; 8,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 14,16</t>
+          <t>-18,96; 14,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 4,44</t>
+          <t>-24,73; 4,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 29,39</t>
+          <t>-4,26; 28,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,64; 35,54</t>
+          <t>4,12; 33,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 20,14</t>
+          <t>-7,18; 19,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 20,72</t>
+          <t>-4,0; 20,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 21,55</t>
+          <t>-1,7; 20,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 9,26</t>
+          <t>-11,84; 8,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,26; 20,45</t>
+          <t>-0,63; 20,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10,98; 23,18</t>
+          <t>11,26; 22,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 11,13</t>
+          <t>-0,93; 10,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 10,76</t>
+          <t>0,08; 10,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,67</t>
+          <t>2,82; 11,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,32</t>
+          <t>-5,17; 3,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,21</t>
+          <t>-0,89; 10,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,7</t>
+          <t>7,92; 14,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,22</t>
+          <t>-1,86; 5,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,95; 10,63</t>
+          <t>1,03; 10,47</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,37; 40,89</t>
+          <t>17,84; 40,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 19,66</t>
+          <t>-1,25; 18,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 19,16</t>
+          <t>0,13; 18,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,72</t>
+          <t>3,63; 15,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 5,88</t>
+          <t>-6,49; 5,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 13,87</t>
+          <t>-1,23; 14,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,89; 22,09</t>
+          <t>11,17; 22,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,73</t>
+          <t>-2,63; 7,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,28; 15,73</t>
+          <t>1,38; 15,63</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,63</t>
+          <t>2,44; 6,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,15</t>
+          <t>2,03; 6,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,57; 15,53</t>
+          <t>10,76; 15,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,67</t>
+          <t>2,72; 7,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,06</t>
+          <t>0,15; 4,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,63; 19,46</t>
+          <t>11,45; 19,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,57</t>
+          <t>3,33; 6,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,95</t>
+          <t>1,83; 4,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,36</t>
+          <t>12,12; 17,73</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>12,22; 34,83</t>
+          <t>11,76; 35,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,12; 32,62</t>
+          <t>9,84; 32,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>50,25; 81,9</t>
+          <t>51,91; 82,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,71; 23,53</t>
+          <t>7,63; 23,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,97; 15,59</t>
+          <t>0,34; 15,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>33,34; 58,53</t>
+          <t>33,02; 58,52</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,9; 25,3</t>
+          <t>12,23; 25,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,23; 18,97</t>
+          <t>6,71; 19,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>44,16; 66,55</t>
+          <t>44,0; 66,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,64</t>
+          <t>-1,35; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,68</t>
+          <t>-0,91; 3,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 15,47</t>
+          <t>3,93; 15,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,87</t>
+          <t>-1,72; 5,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,81</t>
+          <t>-1,79; 5,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 19,2</t>
+          <t>5,66; 19,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,39</t>
+          <t>-0,74; 3,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,74</t>
+          <t>-0,57; 3,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 15,13</t>
+          <t>6,11; 14,76</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 179,58</t>
+          <t>-45,25; 168,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 264,23</t>
+          <t>-34,56; 234,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>121,19; 1064,65</t>
+          <t>116,1; 976,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 88,17</t>
+          <t>-18,55; 94,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 94,58</t>
+          <t>-20,78; 85,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,92; 295,06</t>
+          <t>57,35; 302,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 78,98</t>
+          <t>-12,77; 83,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 91,56</t>
+          <t>-9,46; 90,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,62; 338,02</t>
+          <t>111,91; 344,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,98</t>
+          <t>0,07; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,48</t>
+          <t>-0,86; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 11,84</t>
+          <t>3,6; 11,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,59</t>
+          <t>-7,21; 0,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,39</t>
+          <t>-6,65; 1,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 18,87</t>
+          <t>4,79; 19,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,26</t>
+          <t>-2,18; 2,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,51; 2,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,59</t>
+          <t>6,25; 14,89</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 145,95</t>
+          <t>0,06; 141,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 136,02</t>
+          <t>-17,25; 127,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,93; 338,34</t>
+          <t>64,76; 327,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 5,07</t>
+          <t>-43,76; 4,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 12,36</t>
+          <t>-38,91; 13,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 131,45</t>
+          <t>28,83; 148,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 27,49</t>
+          <t>-21,42; 26,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 29,48</t>
+          <t>-24,76; 25,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,8; 171,54</t>
+          <t>61,49; 172,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,08</t>
+          <t>-2,82; 3,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,0</t>
+          <t>-3,39; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,05</t>
+          <t>1,08; 9,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,13</t>
+          <t>0,38; 9,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 2,18</t>
+          <t>-6,31; 1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,3</t>
+          <t>2,06; 12,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,4</t>
+          <t>-0,22; 5,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,04</t>
+          <t>-4,05; 1,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,51</t>
+          <t>3,49; 9,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 50,46</t>
+          <t>-26,02; 48,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 39,46</t>
+          <t>-30,89; 37,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,15; 111,78</t>
+          <t>9,39; 118,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 55,92</t>
+          <t>1,17; 54,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 13,69</t>
+          <t>-29,84; 11,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 76,51</t>
+          <t>11,64; 73,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 42,14</t>
+          <t>-1,38; 43,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 8,17</t>
+          <t>-26,25; 9,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,52; 71,08</t>
+          <t>21,96; 72,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,98</t>
+          <t>-3,59; 5,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,13</t>
+          <t>1,23; 10,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 17,43</t>
+          <t>4,89; 17,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 9,78</t>
+          <t>-1,91; 9,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,75</t>
+          <t>-3,29; 7,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,67; 18,83</t>
+          <t>8,44; 18,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,32</t>
+          <t>-1,42; 6,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 8,19</t>
+          <t>0,73; 8,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,78; 17,29</t>
+          <t>8,6; 17,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 37,95</t>
+          <t>-20,4; 42,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 83,45</t>
+          <t>6,65; 83,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,8; 126,92</t>
+          <t>31,3; 134,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 36,75</t>
+          <t>-5,89; 36,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 30,23</t>
+          <t>-10,08; 29,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,76; 71,76</t>
+          <t>25,95; 74,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 31,1</t>
+          <t>-5,93; 29,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,99; 39,98</t>
+          <t>3,0; 40,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,77; 84,85</t>
+          <t>35,44; 83,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 5,74</t>
+          <t>-8,36; 5,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,68</t>
+          <t>-12,19; 1,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 10,84</t>
+          <t>-1,68; 11,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 16,56</t>
+          <t>1,82; 16,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 9,3</t>
+          <t>-3,52; 9,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 9,47</t>
+          <t>-1,34; 10,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,04</t>
+          <t>-0,9; 8,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,68</t>
+          <t>-6,19; 3,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,75</t>
+          <t>-0,14; 8,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 14,87</t>
+          <t>-18,71; 14,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 4,74</t>
+          <t>-26,59; 3,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 28,18</t>
+          <t>-3,75; 28,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,12; 33,81</t>
+          <t>3,63; 34,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 19,71</t>
+          <t>-6,87; 20,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 20,18</t>
+          <t>-2,5; 21,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 20,46</t>
+          <t>-2,12; 20,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 8,36</t>
+          <t>-12,57; 8,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 20,13</t>
+          <t>-0,07; 19,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,26; 22,7</t>
+          <t>11,18; 22,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,51</t>
+          <t>-1,11; 10,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 10,58</t>
+          <t>0,2; 10,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,51</t>
+          <t>2,97; 12,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 3,8</t>
+          <t>-5,12; 3,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,55</t>
+          <t>-0,49; 10,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,91</t>
+          <t>7,68; 14,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,33</t>
+          <t>-2,04; 5,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,47</t>
+          <t>1,29; 10,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,84; 40,67</t>
+          <t>17,51; 39,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 18,7</t>
+          <t>-1,71; 18,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,13; 18,9</t>
+          <t>0,29; 18,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,63; 15,65</t>
+          <t>3,76; 16,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,1</t>
+          <t>-6,66; 4,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 14,19</t>
+          <t>-0,63; 14,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,17; 22,27</t>
+          <t>10,96; 22,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,87</t>
+          <t>-2,88; 7,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,63</t>
+          <t>1,79; 15,36</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,62</t>
+          <t>2,24; 6,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,09</t>
+          <t>2,04; 6,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,43</t>
+          <t>10,72; 15,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,61</t>
+          <t>2,85; 7,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,89</t>
+          <t>0,1; 4,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,1</t>
+          <t>11,57; 19,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,45</t>
+          <t>3,24; 6,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,98</t>
+          <t>1,91; 4,94</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,12; 17,73</t>
+          <t>12,0; 16,81</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11,76; 35,34</t>
+          <t>10,63; 34,53</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>9,84; 32,47</t>
+          <t>9,23; 32,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>51,91; 82,16</t>
+          <t>51,22; 82,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,63; 23,28</t>
+          <t>8,34; 23,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,34; 15,19</t>
+          <t>0,22; 15,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>33,02; 58,52</t>
+          <t>33,23; 58,64</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,23; 25,14</t>
+          <t>11,78; 24,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,71; 19,34</t>
+          <t>6,93; 19,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>44,0; 66,75</t>
+          <t>43,75; 63,74</t>
         </is>
       </c>
     </row>
